--- a/optimization_filtered_MRI_xgb.xlsx
+++ b/optimization_filtered_MRI_xgb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhysioUser\OneDrive - University College Cork\Monitor\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC767E16-BF4A-4854-8C1A-4780A367A2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4543BA23-E44D-449C-9508-23357D99E045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>AUC</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>n est</t>
+  </si>
+  <si>
+    <t>used for paper</t>
   </si>
 </sst>
 </file>
@@ -183,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +372,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -530,9 +539,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -888,15 +898,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G577"/>
+  <dimension ref="A1:H577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -919,7 +929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.74027777777777704</v>
       </c>
@@ -942,7 +952,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.73888888888888804</v>
       </c>
@@ -965,7 +975,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.73750000000000004</v>
       </c>
@@ -988,7 +998,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.73750000000000004</v>
       </c>
@@ -1011,7 +1021,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.73611111111111105</v>
       </c>
@@ -1034,7 +1044,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.73472222222222205</v>
       </c>
@@ -1057,7 +1067,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.73472222222222205</v>
       </c>
@@ -1080,7 +1090,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.73472222222222205</v>
       </c>
@@ -1103,30 +1113,33 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>0.73472222222222205</v>
       </c>
-      <c r="B10">
-        <v>0.1</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>500</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.73333333333333295</v>
       </c>
@@ -1149,7 +1162,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.73333333333333295</v>
       </c>
@@ -1172,7 +1185,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.73194444444444395</v>
       </c>
@@ -1195,7 +1208,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.73194444444444395</v>
       </c>
@@ -1218,7 +1231,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.73194444444444395</v>
       </c>
@@ -1241,7 +1254,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.73194444444444395</v>
       </c>
